--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value388.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value388.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.293231399519714</v>
+        <v>2.70015025138855</v>
       </c>
       <c r="B1">
-        <v>1.699143398712123</v>
+        <v>3.102221250534058</v>
       </c>
       <c r="C1">
-        <v>1.786005982950312</v>
+        <v>2.614607810974121</v>
       </c>
       <c r="D1">
-        <v>2.151764423925592</v>
+        <v>2.056376695632935</v>
       </c>
       <c r="E1">
-        <v>2.252562082770156</v>
+        <v>1.28082013130188</v>
       </c>
     </row>
   </sheetData>
